--- a/experiment/linear/ex9_1_2/compare/Fuertemente-Estacionario/ex9_1_2_Fuertemente-Estacionario.xlsx
+++ b/experiment/linear/ex9_1_2/compare/Fuertemente-Estacionario/ex9_1_2_Fuertemente-Estacionario.xlsx
@@ -482,13 +482,13 @@
         <v>0.0</v>
       </c>
       <c r="E2">
-        <v>0.00026991</v>
+        <v>0.000347365</v>
       </c>
       <c r="F2">
-        <v>0.0201069</v>
+        <v>0.025842378</v>
       </c>
       <c r="G2">
-        <v>0.000472741695</v>
+        <v>0.0006340764801227152</v>
       </c>
       <c r="H2">
         <v>1645</v>
@@ -517,13 +517,13 @@
         <v>-325.16513656726295</v>
       </c>
       <c r="E3">
-        <v>0.00553734</v>
+        <v>0.006656237</v>
       </c>
       <c r="F3">
-        <v>0.01512414</v>
+        <v>0.011940453</v>
       </c>
       <c r="G3">
-        <v>0.00620915552238806</v>
+        <v>0.007307757475146198</v>
       </c>
       <c r="H3">
         <v>4442</v>
